--- a/biology/Zoologie/Gertschanapis_shantzi/Gertschanapis_shantzi.xlsx
+++ b/biology/Zoologie/Gertschanapis_shantzi/Gertschanapis_shantzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gertschanapis shantzi, unique représentant du genre Gertschanapis, est une espèce d'araignées aranéomorphes de la famille des Anapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gertschanapis shantzi, unique représentant du genre Gertschanapis, est une espèce d'araignées aranéomorphes de la famille des Anapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Californie et en Oregon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Californie et en Oregon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,05 mm et la femelle paratype 1,23 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,05 mm et la femelle paratype 1,23 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Homer LeRoy Shantz (1876–1958)[2].
-Ce genre est nommé en l'honneur de Willis John Gertsch[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Homer LeRoy Shantz (1876–1958).
+Ce genre est nommé en l'honneur de Willis John Gertsch.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gertsch, 1960 : Descriptions of American spiders of the family Symphytognathidae. American Museum novitates, no 1981, p. 1-40 (texte intégral).
 Platnick &amp; Forster, 1990 : On the spider family Anapidae (Araneae, Araneoidea) in the United States. Journal of the New York Entomological Society, vol. 98, no 1, p. 108-112.</t>
